--- a/SuiviProjet-.xlsx
+++ b/SuiviProjet-.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\ServiceProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_336d\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasilisskarleas/Desktop/University/MAP401/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{DFCE9270-9A2A-184E-AC29-A0D17C12C6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56CE89A-7B7B-224C-B5AA-C503F6991968}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D186D0C1-64F7-C643-B23C-804065F8F9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22120" windowHeight="15760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DiagrammeGanttReel" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
   <si>
     <t>s3</t>
   </si>
@@ -326,7 +323,34 @@
     <t>Change the moveto to single writing in the beginning and handle the courbes of degree 2 to courbes of degree 3</t>
   </si>
   <si>
-    <t xml:space="preserve">working </t>
+    <t>Corrections on creating courbe bezier degree 3</t>
+  </si>
+  <si>
+    <t>On the last point, it was missing t*t*t instead of t*t</t>
+  </si>
+  <si>
+    <t>Wrong usage of int in the approx_degree2</t>
+  </si>
+  <si>
+    <t>changed typing from int to double</t>
+  </si>
+  <si>
+    <t>Error in creating .txt file for the test test_degree2</t>
+  </si>
+  <si>
+    <t>Fixed bugs on the test program</t>
+  </si>
+  <si>
+    <t>Wrong number on the of the bezier on small d</t>
+  </si>
+  <si>
+    <t>Verifying the algorythm and checking for non usage of double</t>
+  </si>
+  <si>
+    <t>There was an error in boucle logic for approx_bezier2</t>
+  </si>
+  <si>
+    <t>Fixed the boucle login for case n&gt;1</t>
   </si>
 </sst>
 </file>
@@ -558,7 +582,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -570,8 +594,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -580,30 +603,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -989,88 +1007,88 @@
   </sheetPr>
   <dimension ref="A3:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView topLeftCell="B4" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="25.484375" style="1" customWidth="1"/>
-    <col min="3" max="36" width="3.37109375" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="11.4609375" style="1"/>
+    <col min="1" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="36" width="3.33203125" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="26" t="s">
+      <c r="J3" s="22"/>
+      <c r="K3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="26" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26" t="s">
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26" t="s">
+      <c r="R3" s="21"/>
+      <c r="S3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="27" t="s">
+      <c r="T3" s="21"/>
+      <c r="U3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26" t="s">
+      <c r="V3" s="22"/>
+      <c r="W3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="27" t="s">
+      <c r="X3" s="21"/>
+      <c r="Y3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="26" t="s">
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="27" t="s">
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27" t="s">
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27" t="s">
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27" t="s">
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="27"/>
+      <c r="AJ3" s="22"/>
     </row>
     <row r="4" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1081,36 +1099,36 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="19"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
       <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="25"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="25"/>
+      <c r="T4" s="23"/>
       <c r="U4" s="2"/>
       <c r="V4" s="5"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="25" t="s">
+      <c r="AA4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="25"/>
+      <c r="AB4" s="23"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="2"/>
@@ -1130,29 +1148,29 @@
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="20"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
       <c r="U5" s="2"/>
       <c r="V5" s="5"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
@@ -1173,28 +1191,28 @@
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
       <c r="U6" s="2"/>
       <c r="V6" s="5"/>
       <c r="W6" s="2"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="2"/>
@@ -1216,27 +1234,27 @@
       <c r="E7" s="2"/>
       <c r="F7" s="5"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="20"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="2"/>
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
       <c r="U7" s="2"/>
       <c r="V7" s="5"/>
       <c r="W7" s="2"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="2"/>
@@ -1258,27 +1276,27 @@
       <c r="E8" s="2"/>
       <c r="F8" s="5"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="2"/>
       <c r="N8" s="5"/>
       <c r="O8" s="2"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
       <c r="U8" s="2"/>
       <c r="V8" s="5"/>
       <c r="W8" s="2"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="2"/>
@@ -1301,26 +1319,26 @@
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="20"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="18"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
       <c r="U9" s="2"/>
       <c r="V9" s="5"/>
       <c r="W9" s="2"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="2"/>
@@ -1345,24 +1363,24 @@
       <c r="H10" s="5"/>
       <c r="I10" s="2"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="2"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="20"/>
       <c r="V10" s="5"/>
       <c r="W10" s="2"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="2"/>
@@ -1387,24 +1405,24 @@
       <c r="H11" s="5"/>
       <c r="I11" s="2"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
       <c r="U11" s="2"/>
       <c r="V11" s="5"/>
       <c r="W11" s="2"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="2"/>
@@ -1429,24 +1447,24 @@
       <c r="H12" s="5"/>
       <c r="I12" s="2"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="2"/>
       <c r="N12" s="5"/>
       <c r="O12" s="2"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
       <c r="U12" s="2"/>
       <c r="V12" s="5"/>
       <c r="W12" s="2"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="2"/>
@@ -1471,24 +1489,24 @@
       <c r="H13" s="5"/>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
       <c r="U13" s="2"/>
       <c r="V13" s="5"/>
       <c r="W13" s="2"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="2"/>
@@ -1498,7 +1516,7 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="5"/>
     </row>
-    <row r="14" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>40</v>
@@ -1511,24 +1529,24 @@
       <c r="H14" s="5"/>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="2"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
       <c r="U14" s="2"/>
       <c r="V14" s="5"/>
       <c r="W14" s="2"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="2"/>
@@ -1538,15 +1556,17 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="5"/>
     </row>
-    <row r="15" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L14"/>
+    <mergeCell ref="S4:T14"/>
+    <mergeCell ref="AA4:AB14"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
@@ -1555,13 +1575,11 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="K4:L14"/>
-    <mergeCell ref="S4:T14"/>
-    <mergeCell ref="AA4:AB14"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -1574,95 +1592,94 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="165" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.12109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.11328125" style="7" customWidth="1"/>
-    <col min="3" max="4" width="45.984375" style="7" customWidth="1"/>
-    <col min="5" max="7" width="10.11328125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="11.4609375" style="7"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="4" width="46" customWidth="1"/>
+    <col min="5" max="7" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+    <row r="2" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
-        <v>44950</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="19">
+        <v>44950</v>
+      </c>
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="21">
-        <v>44950</v>
-      </c>
-      <c r="F2" s="21">
-        <v>44950</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="19">
+        <v>44950</v>
+      </c>
+      <c r="F2" s="19">
+        <v>44950</v>
+      </c>
+      <c r="G2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+    <row r="3" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="21">
-        <v>44950</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="19">
+        <v>44950</v>
+      </c>
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="21">
-        <v>44950</v>
-      </c>
-      <c r="F3" s="21">
-        <v>44950</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="19">
+        <v>44950</v>
+      </c>
+      <c r="F3" s="19">
+        <v>44950</v>
+      </c>
+      <c r="G3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>44950</v>
       </c>
       <c r="C4" t="s">
@@ -1671,21 +1688,21 @@
       <c r="D4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="22">
-        <v>44950</v>
-      </c>
-      <c r="F4" s="22">
+      <c r="E4" s="19">
+        <v>44950</v>
+      </c>
+      <c r="F4" s="19">
         <v>44950</v>
       </c>
       <c r="G4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="19">
         <v>44950</v>
       </c>
       <c r="C5" t="s">
@@ -1694,21 +1711,21 @@
       <c r="D5" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="22">
-        <v>44950</v>
-      </c>
-      <c r="F5" s="22">
+      <c r="E5" s="19">
+        <v>44950</v>
+      </c>
+      <c r="F5" s="19">
         <v>44950</v>
       </c>
       <c r="G5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="19">
         <v>44950</v>
       </c>
       <c r="C6" t="s">
@@ -1717,21 +1734,21 @@
       <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="22">
-        <v>44950</v>
-      </c>
-      <c r="F6" s="22">
+      <c r="E6" s="19">
+        <v>44950</v>
+      </c>
+      <c r="F6" s="19">
         <v>44950</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="19">
         <v>44950</v>
       </c>
       <c r="C7" t="s">
@@ -1740,261 +1757,376 @@
       <c r="D7" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="22">
-        <v>44950</v>
-      </c>
-      <c r="F7" s="22">
+      <c r="E7" s="19">
+        <v>44950</v>
+      </c>
+      <c r="F7" s="19">
         <v>44950</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+    <row r="8" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="19">
         <v>44956</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>44956</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>44956</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+    <row r="9" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="19">
         <v>44953</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>44953</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>44953</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+    <row r="10" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="19">
         <v>44957</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>44957</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>44957</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+    <row r="11" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <v>44964</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>44963</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="19">
         <v>44963</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+    <row r="12" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="19">
         <v>44964</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>44964</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>44964</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+    <row r="13" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="19">
         <v>44964</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>44964</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="19">
         <v>44964</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+    <row r="14" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="19">
         <v>44978</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>44978</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="19">
         <v>44978</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+    <row r="15" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="19">
         <v>44978</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>44978</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+    <row r="16" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="19">
         <v>44985</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>44985</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="19">
         <v>44985</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+    <row r="17" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="19">
         <v>44987</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <v>44987</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
         <v>44987</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+    <row r="18" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="19">
         <v>44987</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>44987</v>
       </c>
-      <c r="F18" s="21">
-        <v>44987</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="19">
+        <v>45006</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19">
+        <v>44978</v>
+      </c>
+      <c r="C19" t="s">
         <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="19">
+        <v>45006</v>
+      </c>
+      <c r="F19" s="19">
+        <v>45006</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19">
+        <v>44978</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="19">
+        <v>45006</v>
+      </c>
+      <c r="F20" s="19">
+        <v>45006</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
+        <v>44978</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="19">
+        <v>45006</v>
+      </c>
+      <c r="F21" s="19">
+        <v>45006</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
+        <v>44978</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="19">
+        <v>45006</v>
+      </c>
+      <c r="F22" s="19">
+        <v>45006</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19">
+        <v>44978</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="19">
+        <v>45006</v>
+      </c>
+      <c r="F23" s="19">
+        <v>45006</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2016,84 +2148,84 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="25.484375" style="1" customWidth="1"/>
-    <col min="3" max="36" width="3.37109375" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="11.4609375" style="1"/>
+    <col min="1" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="36" width="3.33203125" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27" t="s">
+      <c r="J3" s="22"/>
+      <c r="K3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26" t="s">
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26" t="s">
+      <c r="R3" s="21"/>
+      <c r="S3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="26"/>
-      <c r="U3" s="27" t="s">
+      <c r="T3" s="21"/>
+      <c r="U3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26" t="s">
+      <c r="V3" s="22"/>
+      <c r="W3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="27" t="s">
+      <c r="X3" s="21"/>
+      <c r="Y3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="26" t="s">
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="27" t="s">
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27" t="s">
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27" t="s">
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27" t="s">
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="27"/>
+      <c r="AJ3" s="22"/>
     </row>
     <row r="4" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2104,36 +2236,36 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
       <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="25"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="25"/>
+      <c r="T4" s="23"/>
       <c r="U4" s="2"/>
       <c r="V4" s="5"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="25" t="s">
+      <c r="AA4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="25"/>
+      <c r="AB4" s="23"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="2"/>
@@ -2153,29 +2285,29 @@
       <c r="C5" s="2"/>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
       <c r="U5" s="2"/>
       <c r="V5" s="5"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
@@ -2196,28 +2328,28 @@
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
       <c r="U6" s="2"/>
       <c r="V6" s="5"/>
       <c r="W6" s="2"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="2"/>
@@ -2241,25 +2373,25 @@
       <c r="G7" s="2"/>
       <c r="H7" s="5"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="2"/>
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
       <c r="U7" s="2"/>
       <c r="V7" s="5"/>
       <c r="W7" s="2"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="2"/>
@@ -2284,24 +2416,24 @@
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="12"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
       <c r="U8" s="2"/>
       <c r="V8" s="5"/>
       <c r="W8" s="2"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="2"/>
@@ -2326,24 +2458,24 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="2"/>
       <c r="N9" s="5"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="12"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="11"/>
       <c r="W9" s="2"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="2"/>
@@ -2368,24 +2500,24 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5"/>
       <c r="O10" s="2"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
       <c r="U10" s="2"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="2"/>
@@ -2410,26 +2542,26 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
       <c r="U11" s="2"/>
       <c r="V11" s="5"/>
       <c r="W11" s="2"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="12"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="11"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="2"/>
@@ -2437,37 +2569,37 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="5"/>
     </row>
-    <row r="12" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="2"/>
@@ -2477,7 +2609,7 @@
       <c r="AI12" s="2"/>
       <c r="AJ12" s="5"/>
     </row>
-    <row r="13" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>39</v>
@@ -2490,26 +2622,26 @@
       <c r="H13" s="6"/>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
       <c r="U13" s="2"/>
       <c r="V13" s="5"/>
       <c r="W13" s="2"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="12"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="11"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="2"/>
@@ -2517,7 +2649,7 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="5"/>
     </row>
-    <row r="14" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="4" t="s">
         <v>52</v>
@@ -2530,42 +2662,44 @@
       <c r="H14" s="6"/>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="2"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
       <c r="U14" s="2"/>
       <c r="V14" s="5"/>
       <c r="W14" s="2"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="12"/>
-    </row>
-    <row r="65536" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="11"/>
+    </row>
+    <row r="65536" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L14"/>
+    <mergeCell ref="S4:T14"/>
+    <mergeCell ref="AA4:AB14"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
@@ -2574,13 +2708,11 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="K4:L14"/>
-    <mergeCell ref="S4:T14"/>
-    <mergeCell ref="AA4:AB14"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2599,161 +2731,157 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.12109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.13671875" style="7" customWidth="1"/>
-    <col min="3" max="4" width="45.984375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="11.8671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.4609375" style="7"/>
-    <col min="7" max="7" width="10.11328125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="11.4609375" style="7"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="4" width="46" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="16" t="s">
+    <row r="2" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="29.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="29.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
-        <v>44950</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="16">
+        <v>44950</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17">
-        <v>44950</v>
-      </c>
-      <c r="F3" s="17">
-        <v>44950</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="16">
+        <v>44950</v>
+      </c>
+      <c r="F3" s="16">
+        <v>44950</v>
+      </c>
+      <c r="G3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="17">
-        <v>44950</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="16">
+        <v>44950</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17">
-        <v>44950</v>
-      </c>
-      <c r="F4" s="17">
-        <v>44950</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="16">
+        <v>44950</v>
+      </c>
+      <c r="F4" s="16">
+        <v>44950</v>
+      </c>
+      <c r="G4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="17">
-        <v>44950</v>
-      </c>
-      <c r="C5" s="16" t="s">
+    <row r="5" spans="1:7" ht="29.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="16">
+        <v>44950</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="17">
-        <v>44950</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="16">
+        <v>44950</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="17">
-        <v>44950</v>
-      </c>
-      <c r="F6" s="17">
-        <v>44950</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="16">
+        <v>44950</v>
+      </c>
+      <c r="F6" s="16">
+        <v>44950</v>
+      </c>
+      <c r="G6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="17">
-        <v>44950</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="16">
+        <v>44950</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="17">
-        <v>44950</v>
-      </c>
-      <c r="F7" s="17">
-        <v>44950</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="16">
+        <v>44950</v>
+      </c>
+      <c r="F7" s="16">
+        <v>44950</v>
+      </c>
+      <c r="G7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+    <row r="8" spans="1:7" ht="29.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="17">
-        <v>44950</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="16">
+        <v>44950</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>44957</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" t="s">
         <v>62</v>
       </c>
     </row>

--- a/SuiviProjet-.xlsx
+++ b/SuiviProjet-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasilisskarleas/Desktop/University/MAP401/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D186D0C1-64F7-C643-B23C-804065F8F9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89910D8-0D83-9F4F-8270-914E20D13E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22120" windowHeight="15760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22120" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DiagrammeGanttReel" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="109">
   <si>
     <t>s3</t>
   </si>
@@ -351,6 +351,15 @@
   </si>
   <si>
     <t>Fixed the boucle login for case n&gt;1</t>
+  </si>
+  <si>
+    <t>Segmentation fault for Tache7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying every single line of code that has been deployed on the github repository </t>
+  </si>
+  <si>
+    <t>working</t>
   </si>
 </sst>
 </file>
@@ -614,14 +623,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,7 +1016,7 @@
   </sheetPr>
   <dimension ref="A3:AJ15"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
@@ -1021,74 +1030,74 @@
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="21" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="21" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21" t="s">
+      <c r="R3" s="22"/>
+      <c r="S3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="22" t="s">
+      <c r="T3" s="22"/>
+      <c r="U3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="22"/>
-      <c r="W3" s="21" t="s">
+      <c r="V3" s="23"/>
+      <c r="W3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="22" t="s">
+      <c r="X3" s="22"/>
+      <c r="Y3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="21" t="s">
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="22" t="s">
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22" t="s">
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22" t="s">
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22" t="s">
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="22"/>
+      <c r="AJ3" s="23"/>
     </row>
     <row r="4" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1105,30 +1114,30 @@
       <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
+      <c r="T4" s="21"/>
       <c r="U4" s="2"/>
       <c r="V4" s="5"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="23"/>
+      <c r="AB4" s="21"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="2"/>
@@ -1153,24 +1162,24 @@
       <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
       <c r="U5" s="2"/>
       <c r="V5" s="5"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
@@ -1195,24 +1204,24 @@
       <c r="H6" s="5"/>
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
       <c r="U6" s="2"/>
       <c r="V6" s="5"/>
       <c r="W6" s="2"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="2"/>
@@ -1237,24 +1246,24 @@
       <c r="H7" s="18"/>
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="2"/>
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
       <c r="U7" s="2"/>
       <c r="V7" s="5"/>
       <c r="W7" s="2"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="2"/>
@@ -1279,24 +1288,24 @@
       <c r="H8" s="18"/>
       <c r="I8" s="17"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="2"/>
       <c r="N8" s="5"/>
       <c r="O8" s="2"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
       <c r="U8" s="2"/>
       <c r="V8" s="5"/>
       <c r="W8" s="2"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="2"/>
@@ -1321,24 +1330,24 @@
       <c r="H9" s="5"/>
       <c r="I9" s="17"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="20"/>
       <c r="N9" s="18"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
       <c r="U9" s="2"/>
       <c r="V9" s="5"/>
       <c r="W9" s="2"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="2"/>
@@ -1363,24 +1372,24 @@
       <c r="H10" s="5"/>
       <c r="I10" s="2"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5"/>
       <c r="O10" s="17"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
       <c r="U10" s="20"/>
       <c r="V10" s="5"/>
       <c r="W10" s="2"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="2"/>
@@ -1405,24 +1414,24 @@
       <c r="H11" s="5"/>
       <c r="I11" s="2"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
       <c r="U11" s="2"/>
       <c r="V11" s="5"/>
       <c r="W11" s="2"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="2"/>
@@ -1447,24 +1456,24 @@
       <c r="H12" s="5"/>
       <c r="I12" s="2"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="2"/>
       <c r="N12" s="5"/>
       <c r="O12" s="2"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
       <c r="U12" s="2"/>
       <c r="V12" s="5"/>
       <c r="W12" s="2"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="2"/>
@@ -1489,24 +1498,24 @@
       <c r="H13" s="5"/>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
       <c r="U13" s="2"/>
       <c r="V13" s="5"/>
       <c r="W13" s="2"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="2"/>
@@ -1529,24 +1538,24 @@
       <c r="H14" s="5"/>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="2"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
       <c r="U14" s="2"/>
       <c r="V14" s="5"/>
       <c r="W14" s="2"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="2"/>
@@ -1560,13 +1569,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="K4:L14"/>
-    <mergeCell ref="S4:T14"/>
-    <mergeCell ref="AA4:AB14"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
@@ -1575,11 +1582,13 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L14"/>
+    <mergeCell ref="S4:T14"/>
+    <mergeCell ref="AA4:AB14"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -1592,10 +1601,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2127,6 +2136,26 @@
       </c>
       <c r="G23" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19">
+        <v>44978</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="19">
+        <v>45006</v>
+      </c>
+      <c r="G24" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2166,66 +2195,66 @@
         <v>1</v>
       </c>
       <c r="F3" s="24"/>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="21" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21" t="s">
+      <c r="R3" s="22"/>
+      <c r="S3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="22" t="s">
+      <c r="T3" s="22"/>
+      <c r="U3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="22"/>
-      <c r="W3" s="21" t="s">
+      <c r="V3" s="23"/>
+      <c r="W3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="22" t="s">
+      <c r="X3" s="22"/>
+      <c r="Y3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="21" t="s">
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="22" t="s">
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22" t="s">
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22" t="s">
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22" t="s">
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="22"/>
+      <c r="AJ3" s="23"/>
     </row>
     <row r="4" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2242,30 +2271,30 @@
       <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
+      <c r="T4" s="21"/>
       <c r="U4" s="2"/>
       <c r="V4" s="5"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="23"/>
+      <c r="AB4" s="21"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="2"/>
@@ -2290,24 +2319,24 @@
       <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
       <c r="U5" s="2"/>
       <c r="V5" s="5"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
@@ -2332,24 +2361,24 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
       <c r="U6" s="2"/>
       <c r="V6" s="5"/>
       <c r="W6" s="2"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="2"/>
@@ -2374,24 +2403,24 @@
       <c r="H7" s="5"/>
       <c r="I7" s="2"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="2"/>
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
       <c r="U7" s="2"/>
       <c r="V7" s="5"/>
       <c r="W7" s="2"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="2"/>
@@ -2416,24 +2445,24 @@
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="9"/>
       <c r="N8" s="12"/>
       <c r="O8" s="13"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
       <c r="U8" s="2"/>
       <c r="V8" s="5"/>
       <c r="W8" s="2"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="2"/>
@@ -2458,24 +2487,24 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="2"/>
       <c r="N9" s="5"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
       <c r="U9" s="13"/>
       <c r="V9" s="11"/>
       <c r="W9" s="2"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="2"/>
@@ -2500,24 +2529,24 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5"/>
       <c r="O10" s="2"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
       <c r="U10" s="2"/>
       <c r="V10" s="5"/>
       <c r="W10" s="9"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="2"/>
@@ -2542,24 +2571,24 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
       <c r="U11" s="2"/>
       <c r="V11" s="5"/>
       <c r="W11" s="2"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="2"/>
@@ -2582,24 +2611,24 @@
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="13"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
       <c r="U12" s="13"/>
       <c r="V12" s="10"/>
       <c r="W12" s="13"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="2"/>
@@ -2622,24 +2651,24 @@
       <c r="H13" s="6"/>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
       <c r="U13" s="2"/>
       <c r="V13" s="5"/>
       <c r="W13" s="2"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="2"/>
@@ -2662,24 +2691,24 @@
       <c r="H14" s="6"/>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="2"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
       <c r="U14" s="2"/>
       <c r="V14" s="5"/>
       <c r="W14" s="2"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="9"/>
@@ -2693,13 +2722,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="K4:L14"/>
-    <mergeCell ref="S4:T14"/>
-    <mergeCell ref="AA4:AB14"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
@@ -2708,11 +2735,13 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L14"/>
+    <mergeCell ref="S4:T14"/>
+    <mergeCell ref="AA4:AB14"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
